--- a/Yatra/TestData/VillasBookingData.xlsx
+++ b/Yatra/TestData/VillasBookingData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249211\Desktop\Selenium_Project\Yatra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0823DA-E80D-4297-8664-71C3D4E7E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB5479-E2E3-464E-9B2B-036543F1EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchVilla" sheetId="1" r:id="rId1"/>
+    <sheet name="TravellerData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>city</t>
   </si>
@@ -43,16 +44,45 @@
   </si>
   <si>
     <t>8 Dec' 23</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,15 +105,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -364,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -398,4 +431,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E0263-002B-4052-95D9-1A17FF146BFA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>9876543210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5EAC9385-DA1D-476A-B664-3B0E4E2CE414}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Yatra/TestData/VillasBookingData.xlsx
+++ b/Yatra/TestData/VillasBookingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249211\Desktop\Selenium_Project\Yatra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB5479-E2E3-464E-9B2B-036543F1EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B33E8D-1DAC-4B2F-A1CA-5380F1C4C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>mobile</t>
+    <t>mob</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Yatra/TestData/VillasBookingData.xlsx
+++ b/Yatra/TestData/VillasBookingData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249211\Desktop\Selenium_Project\Yatra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B33E8D-1DAC-4B2F-A1CA-5380F1C4C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3024C0-6424-45C4-872C-105599B43EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchVilla" sheetId="1" r:id="rId1"/>
     <sheet name="TravellerData" sheetId="2" r:id="rId2"/>
+    <sheet name="Career" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>city</t>
   </si>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t>mob</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jb-jezequel-saas</t>
   </si>
 </sst>
 </file>
@@ -437,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E0263-002B-4052-95D9-1A17FF146BFA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +505,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9011D1-B837-415D-98B3-17B5648401BC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>9876543210</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6691414-062F-4A2B-9B3F-A38C5789AC76}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{41CF2208-52F9-4BCD-8743-2CB122E05A8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Yatra/TestData/VillasBookingData.xlsx
+++ b/Yatra/TestData/VillasBookingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249211\Desktop\Selenium_Project\Yatra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3024C0-6424-45C4-872C-105599B43EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088B6E55-ACF6-4756-B38B-76558C497CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchVilla" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>city</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/jb-jezequel-saas</t>
+  </si>
+  <si>
+    <t>C:\Users\249211\Desktop\Yatra\BRS-Villas_Stays</t>
   </si>
 </sst>
 </file>
@@ -556,6 +559,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Yatra/TestData/VillasBookingData.xlsx
+++ b/Yatra/TestData/VillasBookingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249211\Desktop\Selenium_Project\Yatra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088B6E55-ACF6-4756-B38B-76558C497CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2D559-7B1C-4C3F-9C71-0FB5C02B4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchVilla" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
     <t>New Delhi</t>
   </si>
   <si>
-    <t>18 Dec' 23</t>
-  </si>
-  <si>
-    <t>8 Dec' 23</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>C:\Users\249211\Desktop\Yatra\BRS-Villas_Stays</t>
+  </si>
+  <si>
+    <t>Friday, 8 December 2023</t>
+  </si>
+  <si>
+    <t>Monday, 18 December 2023</t>
   </si>
 </sst>
 </file>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -476,30 +476,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>9876543210</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9011D1-B837-415D-98B3-17B5648401BC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -525,42 +525,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>9876543210</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Yatra/TestData/VillasBookingData.xlsx
+++ b/Yatra/TestData/VillasBookingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249211\Desktop\Selenium_Project\Yatra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2D559-7B1C-4C3F-9C71-0FB5C02B4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1DC691-C141-4DC7-9EA1-2D534F0A0D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>Friday, 8 December 2023</t>
   </si>
   <si>
-    <t>Monday, 18 December 2023</t>
+    <t>Friday, 5 December 2023</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
